--- a/res/МАРШРУТЫ_болван.xlsx
+++ b/res/МАРШРУТЫ_болван.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="929" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="929" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ДОПы" sheetId="61" r:id="rId1"/>
@@ -20330,7 +20330,7 @@
       </c>
       <c r="C1" s="11">
         <f ca="1">TODAY()+1</f>
-        <v>43059</v>
+        <v>43071</v>
       </c>
       <c r="D1" s="47" t="s">
         <v>20</v>
@@ -20803,7 +20803,7 @@
   <dimension ref="A1:O308"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="110" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20830,7 +20830,7 @@
       </c>
       <c r="C1" s="11">
         <f ca="1">TODAY()+1</f>
-        <v>43059</v>
+        <v>43071</v>
       </c>
       <c r="D1" s="47" t="s">
         <v>20</v>
@@ -21330,7 +21330,7 @@
       </c>
       <c r="C1" s="11">
         <f ca="1">TODAY()+1</f>
-        <v>43059</v>
+        <v>43071</v>
       </c>
       <c r="D1" s="47" t="s">
         <v>20</v>
@@ -21830,7 +21830,7 @@
       </c>
       <c r="C1" s="11">
         <f ca="1">TODAY()+1</f>
-        <v>43059</v>
+        <v>43071</v>
       </c>
       <c r="D1" s="47" t="s">
         <v>20</v>
@@ -22302,7 +22302,7 @@
   </sheetPr>
   <dimension ref="A1:O308"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="110" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="110" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -22330,7 +22330,7 @@
       </c>
       <c r="C1" s="11">
         <f ca="1">TODAY()+1</f>
-        <v>43059</v>
+        <v>43071</v>
       </c>
       <c r="D1" s="47" t="s">
         <v>20</v>
@@ -22803,7 +22803,7 @@
   <dimension ref="A1:O308"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="110" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22830,7 +22830,7 @@
       </c>
       <c r="C1" s="11">
         <f ca="1">TODAY()+1</f>
-        <v>43059</v>
+        <v>43071</v>
       </c>
       <c r="D1" s="47" t="s">
         <v>20</v>
@@ -23302,8 +23302,8 @@
   </sheetPr>
   <dimension ref="A1:O308"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="110" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="110" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23330,7 +23330,7 @@
       </c>
       <c r="C1" s="11">
         <f ca="1">TODAY()+1</f>
-        <v>43059</v>
+        <v>43071</v>
       </c>
       <c r="D1" s="47" t="s">
         <v>20</v>
@@ -23830,7 +23830,7 @@
       </c>
       <c r="C1" s="11">
         <f ca="1">TODAY()+1</f>
-        <v>43059</v>
+        <v>43071</v>
       </c>
       <c r="D1" s="47" t="s">
         <v>20</v>
@@ -24330,7 +24330,7 @@
       </c>
       <c r="C1" s="11">
         <f ca="1">TODAY()+1</f>
-        <v>43059</v>
+        <v>43071</v>
       </c>
       <c r="D1" s="47" t="s">
         <v>20</v>
@@ -24830,7 +24830,7 @@
       </c>
       <c r="C1" s="11">
         <f ca="1">TODAY()+1</f>
-        <v>43059</v>
+        <v>43071</v>
       </c>
       <c r="D1" s="47" t="s">
         <v>20</v>
@@ -25330,7 +25330,7 @@
       </c>
       <c r="C1" s="11">
         <f ca="1">TODAY()+1</f>
-        <v>43059</v>
+        <v>43071</v>
       </c>
       <c r="D1" s="47" t="s">
         <v>20</v>
@@ -25830,7 +25830,7 @@
       </c>
       <c r="C1" s="11">
         <f ca="1">TODAY()+1</f>
-        <v>43059</v>
+        <v>43071</v>
       </c>
       <c r="D1" s="47" t="s">
         <v>20</v>
